--- a/PicoDVI-N64_BOM.xlsx
+++ b/PicoDVI-N64_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
   <si>
     <t>Only used for the hispeedido flex option</t>
   </si>
@@ -124,22 +124,25 @@
     <t>Thick Film Resistors - SMD 47ohm 5%</t>
   </si>
   <si>
-    <t>649-F31L-1A7H1-11030</t>
-  </si>
-  <si>
-    <t>F31L-1A7H1-11030</t>
+    <t>649-SFV30R-4STE1HLF</t>
+  </si>
+  <si>
+    <t>SFV30R-4STE1HLF</t>
   </si>
   <si>
     <t>Amphenol</t>
   </si>
   <si>
-    <t>FFC &amp; FPC Connectors F31L-1A7H1-11030-Flip type</t>
+    <t>FFC &amp; FPC Connectors FFC/FPC CONN</t>
   </si>
   <si>
     <t>RoHS Compliant</t>
   </si>
   <si>
-    <t>$0.87</t>
+    <t>$0.48</t>
+  </si>
+  <si>
+    <t>$1.44</t>
   </si>
   <si>
     <t>530-SS-53000-001</t>
@@ -172,38 +175,26 @@
     <t>$0.40</t>
   </si>
   <si>
-    <t>649-10051922-2410ELF</t>
-  </si>
-  <si>
-    <t>10051922-2410ELF</t>
-  </si>
-  <si>
-    <t>FFC &amp; FPC Connectors 24P LOWER CONTACT SFV SIDE ENTRY</t>
-  </si>
-  <si>
-    <t>$0.59</t>
-  </si>
-  <si>
-    <t>By submitting your order you agree to these terms and conditions.</t>
-  </si>
-  <si>
-    <t>Merchandise:</t>
-  </si>
-  <si>
-    <t>Prices are reflected at the date and time shown.</t>
-  </si>
-  <si>
-    <t>Shipping Charge:</t>
+    <t>649-SFV24R-4STBE1HLF</t>
+  </si>
+  <si>
+    <t>SFV24R-4STBE1HLF</t>
+  </si>
+  <si>
+    <t>FFC &amp; FPC Connectors 24P R/A SMT FFC/FPC 0.5mm CONT SPACING</t>
+  </si>
+  <si>
+    <t>$0.56</t>
+  </si>
+  <si>
+    <t>$1.68</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -218,7 +209,6 @@
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -226,14 +216,8 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11.0"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,6 +248,12 @@
         <bgColor rgb="FFCCCCFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border/>
@@ -277,16 +267,16 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -299,15 +289,23 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -565,7 +563,6 @@
     <col customWidth="1" min="9" max="9" width="9.71"/>
     <col customWidth="1" min="10" max="10" width="14.71"/>
     <col customWidth="1" min="11" max="11" width="9.71"/>
-    <col customWidth="1" min="12" max="26" width="8.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1"/>
@@ -782,31 +779,31 @@
       <c r="A15" s="10">
         <v>6.0</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10" t="s">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="G15" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10">
-        <v>1.0</v>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13">
+        <v>3.0</v>
       </c>
       <c r="J15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -814,16 +811,16 @@
         <v>7.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>41</v>
@@ -832,10 +829,10 @@
         <v>1.0</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -843,16 +840,16 @@
         <v>8.0</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
@@ -861,41 +858,41 @@
         <v>1.0</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2">
         <v>9.0</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B18" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="C18" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="2" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>56</v>
+      <c r="H18" s="14"/>
+      <c r="I18" s="16">
+        <v>3.0</v>
+      </c>
+      <c r="J18" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18" s="14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -903,107 +900,25 @@
       <c r="J20" s="5"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="14">
-        <v>4.37</v>
-      </c>
+      <c r="J21" s="5"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="K22" s="14">
-        <v>7.99</v>
-      </c>
+      <c r="J22" s="5"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="13"/>
+      <c r="J23" s="5"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="13"/>
+      <c r="J24" s="5"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="13"/>
+      <c r="J25" s="5"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="13"/>
+      <c r="J26" s="5"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="13"/>
+      <c r="J27" s="5"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
       <c r="J28" s="5"/>
@@ -1569,812 +1484,788 @@
     <row r="215" ht="14.25" customHeight="1">
       <c r="J215" s="5"/>
     </row>
-    <row r="216" ht="14.25" customHeight="1">
-      <c r="J216" s="5"/>
-    </row>
-    <row r="217" ht="14.25" customHeight="1">
-      <c r="J217" s="5"/>
-    </row>
-    <row r="218" ht="14.25" customHeight="1">
-      <c r="J218" s="5"/>
-    </row>
-    <row r="219" ht="14.25" customHeight="1">
-      <c r="J219" s="5"/>
-    </row>
-    <row r="220" ht="14.25" customHeight="1">
-      <c r="J220" s="5"/>
-    </row>
-    <row r="221" ht="14.25" customHeight="1">
-      <c r="J221" s="5"/>
-    </row>
-    <row r="222" ht="14.25" customHeight="1">
-      <c r="J222" s="5"/>
-    </row>
-    <row r="223" ht="14.25" customHeight="1"/>
-    <row r="224" ht="14.25" customHeight="1"/>
-    <row r="225" ht="14.25" customHeight="1"/>
-    <row r="226" ht="14.25" customHeight="1"/>
-    <row r="227" ht="14.25" customHeight="1"/>
-    <row r="228" ht="14.25" customHeight="1"/>
-    <row r="229" ht="14.25" customHeight="1"/>
-    <row r="230" ht="14.25" customHeight="1"/>
-    <row r="231" ht="14.25" customHeight="1"/>
-    <row r="232" ht="14.25" customHeight="1"/>
-    <row r="233" ht="14.25" customHeight="1"/>
-    <row r="234" ht="14.25" customHeight="1"/>
-    <row r="235" ht="14.25" customHeight="1"/>
-    <row r="236" ht="14.25" customHeight="1"/>
-    <row r="237" ht="14.25" customHeight="1"/>
-    <row r="238" ht="14.25" customHeight="1"/>
-    <row r="239" ht="14.25" customHeight="1"/>
-    <row r="240" ht="14.25" customHeight="1"/>
-    <row r="241" ht="14.25" customHeight="1"/>
-    <row r="242" ht="14.25" customHeight="1"/>
-    <row r="243" ht="14.25" customHeight="1"/>
-    <row r="244" ht="14.25" customHeight="1"/>
-    <row r="245" ht="14.25" customHeight="1"/>
-    <row r="246" ht="14.25" customHeight="1"/>
-    <row r="247" ht="14.25" customHeight="1"/>
-    <row r="248" ht="14.25" customHeight="1"/>
-    <row r="249" ht="14.25" customHeight="1"/>
-    <row r="250" ht="14.25" customHeight="1"/>
-    <row r="251" ht="14.25" customHeight="1"/>
-    <row r="252" ht="14.25" customHeight="1"/>
-    <row r="253" ht="14.25" customHeight="1"/>
-    <row r="254" ht="14.25" customHeight="1"/>
-    <row r="255" ht="14.25" customHeight="1"/>
-    <row r="256" ht="14.25" customHeight="1"/>
-    <row r="257" ht="14.25" customHeight="1"/>
-    <row r="258" ht="14.25" customHeight="1"/>
-    <row r="259" ht="14.25" customHeight="1"/>
-    <row r="260" ht="14.25" customHeight="1"/>
-    <row r="261" ht="14.25" customHeight="1"/>
-    <row r="262" ht="14.25" customHeight="1"/>
-    <row r="263" ht="14.25" customHeight="1"/>
-    <row r="264" ht="14.25" customHeight="1"/>
-    <row r="265" ht="14.25" customHeight="1"/>
-    <row r="266" ht="14.25" customHeight="1"/>
-    <row r="267" ht="14.25" customHeight="1"/>
-    <row r="268" ht="14.25" customHeight="1"/>
-    <row r="269" ht="14.25" customHeight="1"/>
-    <row r="270" ht="14.25" customHeight="1"/>
-    <row r="271" ht="14.25" customHeight="1"/>
-    <row r="272" ht="14.25" customHeight="1"/>
-    <row r="273" ht="14.25" customHeight="1"/>
-    <row r="274" ht="14.25" customHeight="1"/>
-    <row r="275" ht="14.25" customHeight="1"/>
-    <row r="276" ht="14.25" customHeight="1"/>
-    <row r="277" ht="14.25" customHeight="1"/>
-    <row r="278" ht="14.25" customHeight="1"/>
-    <row r="279" ht="14.25" customHeight="1"/>
-    <row r="280" ht="14.25" customHeight="1"/>
-    <row r="281" ht="14.25" customHeight="1"/>
-    <row r="282" ht="14.25" customHeight="1"/>
-    <row r="283" ht="14.25" customHeight="1"/>
-    <row r="284" ht="14.25" customHeight="1"/>
-    <row r="285" ht="14.25" customHeight="1"/>
-    <row r="286" ht="14.25" customHeight="1"/>
-    <row r="287" ht="14.25" customHeight="1"/>
-    <row r="288" ht="14.25" customHeight="1"/>
-    <row r="289" ht="14.25" customHeight="1"/>
-    <row r="290" ht="14.25" customHeight="1"/>
-    <row r="291" ht="14.25" customHeight="1"/>
-    <row r="292" ht="14.25" customHeight="1"/>
-    <row r="293" ht="14.25" customHeight="1"/>
-    <row r="294" ht="14.25" customHeight="1"/>
-    <row r="295" ht="14.25" customHeight="1"/>
-    <row r="296" ht="14.25" customHeight="1"/>
-    <row r="297" ht="14.25" customHeight="1"/>
-    <row r="298" ht="14.25" customHeight="1"/>
-    <row r="299" ht="14.25" customHeight="1"/>
-    <row r="300" ht="14.25" customHeight="1"/>
-    <row r="301" ht="14.25" customHeight="1"/>
-    <row r="302" ht="14.25" customHeight="1"/>
-    <row r="303" ht="14.25" customHeight="1"/>
-    <row r="304" ht="14.25" customHeight="1"/>
-    <row r="305" ht="14.25" customHeight="1"/>
-    <row r="306" ht="14.25" customHeight="1"/>
-    <row r="307" ht="14.25" customHeight="1"/>
-    <row r="308" ht="14.25" customHeight="1"/>
-    <row r="309" ht="14.25" customHeight="1"/>
-    <row r="310" ht="14.25" customHeight="1"/>
-    <row r="311" ht="14.25" customHeight="1"/>
-    <row r="312" ht="14.25" customHeight="1"/>
-    <row r="313" ht="14.25" customHeight="1"/>
-    <row r="314" ht="14.25" customHeight="1"/>
-    <row r="315" ht="14.25" customHeight="1"/>
-    <row r="316" ht="14.25" customHeight="1"/>
-    <row r="317" ht="14.25" customHeight="1"/>
-    <row r="318" ht="14.25" customHeight="1"/>
-    <row r="319" ht="14.25" customHeight="1"/>
-    <row r="320" ht="14.25" customHeight="1"/>
-    <row r="321" ht="14.25" customHeight="1"/>
-    <row r="322" ht="14.25" customHeight="1"/>
-    <row r="323" ht="14.25" customHeight="1"/>
-    <row r="324" ht="14.25" customHeight="1"/>
-    <row r="325" ht="14.25" customHeight="1"/>
-    <row r="326" ht="14.25" customHeight="1"/>
-    <row r="327" ht="14.25" customHeight="1"/>
-    <row r="328" ht="14.25" customHeight="1"/>
-    <row r="329" ht="14.25" customHeight="1"/>
-    <row r="330" ht="14.25" customHeight="1"/>
-    <row r="331" ht="14.25" customHeight="1"/>
-    <row r="332" ht="14.25" customHeight="1"/>
-    <row r="333" ht="14.25" customHeight="1"/>
-    <row r="334" ht="14.25" customHeight="1"/>
-    <row r="335" ht="14.25" customHeight="1"/>
-    <row r="336" ht="14.25" customHeight="1"/>
-    <row r="337" ht="14.25" customHeight="1"/>
-    <row r="338" ht="14.25" customHeight="1"/>
-    <row r="339" ht="14.25" customHeight="1"/>
-    <row r="340" ht="14.25" customHeight="1"/>
-    <row r="341" ht="14.25" customHeight="1"/>
-    <row r="342" ht="14.25" customHeight="1"/>
-    <row r="343" ht="14.25" customHeight="1"/>
-    <row r="344" ht="14.25" customHeight="1"/>
-    <row r="345" ht="14.25" customHeight="1"/>
-    <row r="346" ht="14.25" customHeight="1"/>
-    <row r="347" ht="14.25" customHeight="1"/>
-    <row r="348" ht="14.25" customHeight="1"/>
-    <row r="349" ht="14.25" customHeight="1"/>
-    <row r="350" ht="14.25" customHeight="1"/>
-    <row r="351" ht="14.25" customHeight="1"/>
-    <row r="352" ht="14.25" customHeight="1"/>
-    <row r="353" ht="14.25" customHeight="1"/>
-    <row r="354" ht="14.25" customHeight="1"/>
-    <row r="355" ht="14.25" customHeight="1"/>
-    <row r="356" ht="14.25" customHeight="1"/>
-    <row r="357" ht="14.25" customHeight="1"/>
-    <row r="358" ht="14.25" customHeight="1"/>
-    <row r="359" ht="14.25" customHeight="1"/>
-    <row r="360" ht="14.25" customHeight="1"/>
-    <row r="361" ht="14.25" customHeight="1"/>
-    <row r="362" ht="14.25" customHeight="1"/>
-    <row r="363" ht="14.25" customHeight="1"/>
-    <row r="364" ht="14.25" customHeight="1"/>
-    <row r="365" ht="14.25" customHeight="1"/>
-    <row r="366" ht="14.25" customHeight="1"/>
-    <row r="367" ht="14.25" customHeight="1"/>
-    <row r="368" ht="14.25" customHeight="1"/>
-    <row r="369" ht="14.25" customHeight="1"/>
-    <row r="370" ht="14.25" customHeight="1"/>
-    <row r="371" ht="14.25" customHeight="1"/>
-    <row r="372" ht="14.25" customHeight="1"/>
-    <row r="373" ht="14.25" customHeight="1"/>
-    <row r="374" ht="14.25" customHeight="1"/>
-    <row r="375" ht="14.25" customHeight="1"/>
-    <row r="376" ht="14.25" customHeight="1"/>
-    <row r="377" ht="14.25" customHeight="1"/>
-    <row r="378" ht="14.25" customHeight="1"/>
-    <row r="379" ht="14.25" customHeight="1"/>
-    <row r="380" ht="14.25" customHeight="1"/>
-    <row r="381" ht="14.25" customHeight="1"/>
-    <row r="382" ht="14.25" customHeight="1"/>
-    <row r="383" ht="14.25" customHeight="1"/>
-    <row r="384" ht="14.25" customHeight="1"/>
-    <row r="385" ht="14.25" customHeight="1"/>
-    <row r="386" ht="14.25" customHeight="1"/>
-    <row r="387" ht="14.25" customHeight="1"/>
-    <row r="388" ht="14.25" customHeight="1"/>
-    <row r="389" ht="14.25" customHeight="1"/>
-    <row r="390" ht="14.25" customHeight="1"/>
-    <row r="391" ht="14.25" customHeight="1"/>
-    <row r="392" ht="14.25" customHeight="1"/>
-    <row r="393" ht="14.25" customHeight="1"/>
-    <row r="394" ht="14.25" customHeight="1"/>
-    <row r="395" ht="14.25" customHeight="1"/>
-    <row r="396" ht="14.25" customHeight="1"/>
-    <row r="397" ht="14.25" customHeight="1"/>
-    <row r="398" ht="14.25" customHeight="1"/>
-    <row r="399" ht="14.25" customHeight="1"/>
-    <row r="400" ht="14.25" customHeight="1"/>
-    <row r="401" ht="14.25" customHeight="1"/>
-    <row r="402" ht="14.25" customHeight="1"/>
-    <row r="403" ht="14.25" customHeight="1"/>
-    <row r="404" ht="14.25" customHeight="1"/>
-    <row r="405" ht="14.25" customHeight="1"/>
-    <row r="406" ht="14.25" customHeight="1"/>
-    <row r="407" ht="14.25" customHeight="1"/>
-    <row r="408" ht="14.25" customHeight="1"/>
-    <row r="409" ht="14.25" customHeight="1"/>
-    <row r="410" ht="14.25" customHeight="1"/>
-    <row r="411" ht="14.25" customHeight="1"/>
-    <row r="412" ht="14.25" customHeight="1"/>
-    <row r="413" ht="14.25" customHeight="1"/>
-    <row r="414" ht="14.25" customHeight="1"/>
-    <row r="415" ht="14.25" customHeight="1"/>
-    <row r="416" ht="14.25" customHeight="1"/>
-    <row r="417" ht="14.25" customHeight="1"/>
-    <row r="418" ht="14.25" customHeight="1"/>
-    <row r="419" ht="14.25" customHeight="1"/>
-    <row r="420" ht="14.25" customHeight="1"/>
-    <row r="421" ht="14.25" customHeight="1"/>
-    <row r="422" ht="14.25" customHeight="1"/>
-    <row r="423" ht="14.25" customHeight="1"/>
-    <row r="424" ht="14.25" customHeight="1"/>
-    <row r="425" ht="14.25" customHeight="1"/>
-    <row r="426" ht="14.25" customHeight="1"/>
-    <row r="427" ht="14.25" customHeight="1"/>
-    <row r="428" ht="14.25" customHeight="1"/>
-    <row r="429" ht="14.25" customHeight="1"/>
-    <row r="430" ht="14.25" customHeight="1"/>
-    <row r="431" ht="14.25" customHeight="1"/>
-    <row r="432" ht="14.25" customHeight="1"/>
-    <row r="433" ht="14.25" customHeight="1"/>
-    <row r="434" ht="14.25" customHeight="1"/>
-    <row r="435" ht="14.25" customHeight="1"/>
-    <row r="436" ht="14.25" customHeight="1"/>
-    <row r="437" ht="14.25" customHeight="1"/>
-    <row r="438" ht="14.25" customHeight="1"/>
-    <row r="439" ht="14.25" customHeight="1"/>
-    <row r="440" ht="14.25" customHeight="1"/>
-    <row r="441" ht="14.25" customHeight="1"/>
-    <row r="442" ht="14.25" customHeight="1"/>
-    <row r="443" ht="14.25" customHeight="1"/>
-    <row r="444" ht="14.25" customHeight="1"/>
-    <row r="445" ht="14.25" customHeight="1"/>
-    <row r="446" ht="14.25" customHeight="1"/>
-    <row r="447" ht="14.25" customHeight="1"/>
-    <row r="448" ht="14.25" customHeight="1"/>
-    <row r="449" ht="14.25" customHeight="1"/>
-    <row r="450" ht="14.25" customHeight="1"/>
-    <row r="451" ht="14.25" customHeight="1"/>
-    <row r="452" ht="14.25" customHeight="1"/>
-    <row r="453" ht="14.25" customHeight="1"/>
-    <row r="454" ht="14.25" customHeight="1"/>
-    <row r="455" ht="14.25" customHeight="1"/>
-    <row r="456" ht="14.25" customHeight="1"/>
-    <row r="457" ht="14.25" customHeight="1"/>
-    <row r="458" ht="14.25" customHeight="1"/>
-    <row r="459" ht="14.25" customHeight="1"/>
-    <row r="460" ht="14.25" customHeight="1"/>
-    <row r="461" ht="14.25" customHeight="1"/>
-    <row r="462" ht="14.25" customHeight="1"/>
-    <row r="463" ht="14.25" customHeight="1"/>
-    <row r="464" ht="14.25" customHeight="1"/>
-    <row r="465" ht="14.25" customHeight="1"/>
-    <row r="466" ht="14.25" customHeight="1"/>
-    <row r="467" ht="14.25" customHeight="1"/>
-    <row r="468" ht="14.25" customHeight="1"/>
-    <row r="469" ht="14.25" customHeight="1"/>
-    <row r="470" ht="14.25" customHeight="1"/>
-    <row r="471" ht="14.25" customHeight="1"/>
-    <row r="472" ht="14.25" customHeight="1"/>
-    <row r="473" ht="14.25" customHeight="1"/>
-    <row r="474" ht="14.25" customHeight="1"/>
-    <row r="475" ht="14.25" customHeight="1"/>
-    <row r="476" ht="14.25" customHeight="1"/>
-    <row r="477" ht="14.25" customHeight="1"/>
-    <row r="478" ht="14.25" customHeight="1"/>
-    <row r="479" ht="14.25" customHeight="1"/>
-    <row r="480" ht="14.25" customHeight="1"/>
-    <row r="481" ht="14.25" customHeight="1"/>
-    <row r="482" ht="14.25" customHeight="1"/>
-    <row r="483" ht="14.25" customHeight="1"/>
-    <row r="484" ht="14.25" customHeight="1"/>
-    <row r="485" ht="14.25" customHeight="1"/>
-    <row r="486" ht="14.25" customHeight="1"/>
-    <row r="487" ht="14.25" customHeight="1"/>
-    <row r="488" ht="14.25" customHeight="1"/>
-    <row r="489" ht="14.25" customHeight="1"/>
-    <row r="490" ht="14.25" customHeight="1"/>
-    <row r="491" ht="14.25" customHeight="1"/>
-    <row r="492" ht="14.25" customHeight="1"/>
-    <row r="493" ht="14.25" customHeight="1"/>
-    <row r="494" ht="14.25" customHeight="1"/>
-    <row r="495" ht="14.25" customHeight="1"/>
-    <row r="496" ht="14.25" customHeight="1"/>
-    <row r="497" ht="14.25" customHeight="1"/>
-    <row r="498" ht="14.25" customHeight="1"/>
-    <row r="499" ht="14.25" customHeight="1"/>
-    <row r="500" ht="14.25" customHeight="1"/>
-    <row r="501" ht="14.25" customHeight="1"/>
-    <row r="502" ht="14.25" customHeight="1"/>
-    <row r="503" ht="14.25" customHeight="1"/>
-    <row r="504" ht="14.25" customHeight="1"/>
-    <row r="505" ht="14.25" customHeight="1"/>
-    <row r="506" ht="14.25" customHeight="1"/>
-    <row r="507" ht="14.25" customHeight="1"/>
-    <row r="508" ht="14.25" customHeight="1"/>
-    <row r="509" ht="14.25" customHeight="1"/>
-    <row r="510" ht="14.25" customHeight="1"/>
-    <row r="511" ht="14.25" customHeight="1"/>
-    <row r="512" ht="14.25" customHeight="1"/>
-    <row r="513" ht="14.25" customHeight="1"/>
-    <row r="514" ht="14.25" customHeight="1"/>
-    <row r="515" ht="14.25" customHeight="1"/>
-    <row r="516" ht="14.25" customHeight="1"/>
-    <row r="517" ht="14.25" customHeight="1"/>
-    <row r="518" ht="14.25" customHeight="1"/>
-    <row r="519" ht="14.25" customHeight="1"/>
-    <row r="520" ht="14.25" customHeight="1"/>
-    <row r="521" ht="14.25" customHeight="1"/>
-    <row r="522" ht="14.25" customHeight="1"/>
-    <row r="523" ht="14.25" customHeight="1"/>
-    <row r="524" ht="14.25" customHeight="1"/>
-    <row r="525" ht="14.25" customHeight="1"/>
-    <row r="526" ht="14.25" customHeight="1"/>
-    <row r="527" ht="14.25" customHeight="1"/>
-    <row r="528" ht="14.25" customHeight="1"/>
-    <row r="529" ht="14.25" customHeight="1"/>
-    <row r="530" ht="14.25" customHeight="1"/>
-    <row r="531" ht="14.25" customHeight="1"/>
-    <row r="532" ht="14.25" customHeight="1"/>
-    <row r="533" ht="14.25" customHeight="1"/>
-    <row r="534" ht="14.25" customHeight="1"/>
-    <row r="535" ht="14.25" customHeight="1"/>
-    <row r="536" ht="14.25" customHeight="1"/>
-    <row r="537" ht="14.25" customHeight="1"/>
-    <row r="538" ht="14.25" customHeight="1"/>
-    <row r="539" ht="14.25" customHeight="1"/>
-    <row r="540" ht="14.25" customHeight="1"/>
-    <row r="541" ht="14.25" customHeight="1"/>
-    <row r="542" ht="14.25" customHeight="1"/>
-    <row r="543" ht="14.25" customHeight="1"/>
-    <row r="544" ht="14.25" customHeight="1"/>
-    <row r="545" ht="14.25" customHeight="1"/>
-    <row r="546" ht="14.25" customHeight="1"/>
-    <row r="547" ht="14.25" customHeight="1"/>
-    <row r="548" ht="14.25" customHeight="1"/>
-    <row r="549" ht="14.25" customHeight="1"/>
-    <row r="550" ht="14.25" customHeight="1"/>
-    <row r="551" ht="14.25" customHeight="1"/>
-    <row r="552" ht="14.25" customHeight="1"/>
-    <row r="553" ht="14.25" customHeight="1"/>
-    <row r="554" ht="14.25" customHeight="1"/>
-    <row r="555" ht="14.25" customHeight="1"/>
-    <row r="556" ht="14.25" customHeight="1"/>
-    <row r="557" ht="14.25" customHeight="1"/>
-    <row r="558" ht="14.25" customHeight="1"/>
-    <row r="559" ht="14.25" customHeight="1"/>
-    <row r="560" ht="14.25" customHeight="1"/>
-    <row r="561" ht="14.25" customHeight="1"/>
-    <row r="562" ht="14.25" customHeight="1"/>
-    <row r="563" ht="14.25" customHeight="1"/>
-    <row r="564" ht="14.25" customHeight="1"/>
-    <row r="565" ht="14.25" customHeight="1"/>
-    <row r="566" ht="14.25" customHeight="1"/>
-    <row r="567" ht="14.25" customHeight="1"/>
-    <row r="568" ht="14.25" customHeight="1"/>
-    <row r="569" ht="14.25" customHeight="1"/>
-    <row r="570" ht="14.25" customHeight="1"/>
-    <row r="571" ht="14.25" customHeight="1"/>
-    <row r="572" ht="14.25" customHeight="1"/>
-    <row r="573" ht="14.25" customHeight="1"/>
-    <row r="574" ht="14.25" customHeight="1"/>
-    <row r="575" ht="14.25" customHeight="1"/>
-    <row r="576" ht="14.25" customHeight="1"/>
-    <row r="577" ht="14.25" customHeight="1"/>
-    <row r="578" ht="14.25" customHeight="1"/>
-    <row r="579" ht="14.25" customHeight="1"/>
-    <row r="580" ht="14.25" customHeight="1"/>
-    <row r="581" ht="14.25" customHeight="1"/>
-    <row r="582" ht="14.25" customHeight="1"/>
-    <row r="583" ht="14.25" customHeight="1"/>
-    <row r="584" ht="14.25" customHeight="1"/>
-    <row r="585" ht="14.25" customHeight="1"/>
-    <row r="586" ht="14.25" customHeight="1"/>
-    <row r="587" ht="14.25" customHeight="1"/>
-    <row r="588" ht="14.25" customHeight="1"/>
-    <row r="589" ht="14.25" customHeight="1"/>
-    <row r="590" ht="14.25" customHeight="1"/>
-    <row r="591" ht="14.25" customHeight="1"/>
-    <row r="592" ht="14.25" customHeight="1"/>
-    <row r="593" ht="14.25" customHeight="1"/>
-    <row r="594" ht="14.25" customHeight="1"/>
-    <row r="595" ht="14.25" customHeight="1"/>
-    <row r="596" ht="14.25" customHeight="1"/>
-    <row r="597" ht="14.25" customHeight="1"/>
-    <row r="598" ht="14.25" customHeight="1"/>
-    <row r="599" ht="14.25" customHeight="1"/>
-    <row r="600" ht="14.25" customHeight="1"/>
-    <row r="601" ht="14.25" customHeight="1"/>
-    <row r="602" ht="14.25" customHeight="1"/>
-    <row r="603" ht="14.25" customHeight="1"/>
-    <row r="604" ht="14.25" customHeight="1"/>
-    <row r="605" ht="14.25" customHeight="1"/>
-    <row r="606" ht="14.25" customHeight="1"/>
-    <row r="607" ht="14.25" customHeight="1"/>
-    <row r="608" ht="14.25" customHeight="1"/>
-    <row r="609" ht="14.25" customHeight="1"/>
-    <row r="610" ht="14.25" customHeight="1"/>
-    <row r="611" ht="14.25" customHeight="1"/>
-    <row r="612" ht="14.25" customHeight="1"/>
-    <row r="613" ht="14.25" customHeight="1"/>
-    <row r="614" ht="14.25" customHeight="1"/>
-    <row r="615" ht="14.25" customHeight="1"/>
-    <row r="616" ht="14.25" customHeight="1"/>
-    <row r="617" ht="14.25" customHeight="1"/>
-    <row r="618" ht="14.25" customHeight="1"/>
-    <row r="619" ht="14.25" customHeight="1"/>
-    <row r="620" ht="14.25" customHeight="1"/>
-    <row r="621" ht="14.25" customHeight="1"/>
-    <row r="622" ht="14.25" customHeight="1"/>
-    <row r="623" ht="14.25" customHeight="1"/>
-    <row r="624" ht="14.25" customHeight="1"/>
-    <row r="625" ht="14.25" customHeight="1"/>
-    <row r="626" ht="14.25" customHeight="1"/>
-    <row r="627" ht="14.25" customHeight="1"/>
-    <row r="628" ht="14.25" customHeight="1"/>
-    <row r="629" ht="14.25" customHeight="1"/>
-    <row r="630" ht="14.25" customHeight="1"/>
-    <row r="631" ht="14.25" customHeight="1"/>
-    <row r="632" ht="14.25" customHeight="1"/>
-    <row r="633" ht="14.25" customHeight="1"/>
-    <row r="634" ht="14.25" customHeight="1"/>
-    <row r="635" ht="14.25" customHeight="1"/>
-    <row r="636" ht="14.25" customHeight="1"/>
-    <row r="637" ht="14.25" customHeight="1"/>
-    <row r="638" ht="14.25" customHeight="1"/>
-    <row r="639" ht="14.25" customHeight="1"/>
-    <row r="640" ht="14.25" customHeight="1"/>
-    <row r="641" ht="14.25" customHeight="1"/>
-    <row r="642" ht="14.25" customHeight="1"/>
-    <row r="643" ht="14.25" customHeight="1"/>
-    <row r="644" ht="14.25" customHeight="1"/>
-    <row r="645" ht="14.25" customHeight="1"/>
-    <row r="646" ht="14.25" customHeight="1"/>
-    <row r="647" ht="14.25" customHeight="1"/>
-    <row r="648" ht="14.25" customHeight="1"/>
-    <row r="649" ht="14.25" customHeight="1"/>
-    <row r="650" ht="14.25" customHeight="1"/>
-    <row r="651" ht="14.25" customHeight="1"/>
-    <row r="652" ht="14.25" customHeight="1"/>
-    <row r="653" ht="14.25" customHeight="1"/>
-    <row r="654" ht="14.25" customHeight="1"/>
-    <row r="655" ht="14.25" customHeight="1"/>
-    <row r="656" ht="14.25" customHeight="1"/>
-    <row r="657" ht="14.25" customHeight="1"/>
-    <row r="658" ht="14.25" customHeight="1"/>
-    <row r="659" ht="14.25" customHeight="1"/>
-    <row r="660" ht="14.25" customHeight="1"/>
-    <row r="661" ht="14.25" customHeight="1"/>
-    <row r="662" ht="14.25" customHeight="1"/>
-    <row r="663" ht="14.25" customHeight="1"/>
-    <row r="664" ht="14.25" customHeight="1"/>
-    <row r="665" ht="14.25" customHeight="1"/>
-    <row r="666" ht="14.25" customHeight="1"/>
-    <row r="667" ht="14.25" customHeight="1"/>
-    <row r="668" ht="14.25" customHeight="1"/>
-    <row r="669" ht="14.25" customHeight="1"/>
-    <row r="670" ht="14.25" customHeight="1"/>
-    <row r="671" ht="14.25" customHeight="1"/>
-    <row r="672" ht="14.25" customHeight="1"/>
-    <row r="673" ht="14.25" customHeight="1"/>
-    <row r="674" ht="14.25" customHeight="1"/>
-    <row r="675" ht="14.25" customHeight="1"/>
-    <row r="676" ht="14.25" customHeight="1"/>
-    <row r="677" ht="14.25" customHeight="1"/>
-    <row r="678" ht="14.25" customHeight="1"/>
-    <row r="679" ht="14.25" customHeight="1"/>
-    <row r="680" ht="14.25" customHeight="1"/>
-    <row r="681" ht="14.25" customHeight="1"/>
-    <row r="682" ht="14.25" customHeight="1"/>
-    <row r="683" ht="14.25" customHeight="1"/>
-    <row r="684" ht="14.25" customHeight="1"/>
-    <row r="685" ht="14.25" customHeight="1"/>
-    <row r="686" ht="14.25" customHeight="1"/>
-    <row r="687" ht="14.25" customHeight="1"/>
-    <row r="688" ht="14.25" customHeight="1"/>
-    <row r="689" ht="14.25" customHeight="1"/>
-    <row r="690" ht="14.25" customHeight="1"/>
-    <row r="691" ht="14.25" customHeight="1"/>
-    <row r="692" ht="14.25" customHeight="1"/>
-    <row r="693" ht="14.25" customHeight="1"/>
-    <row r="694" ht="14.25" customHeight="1"/>
-    <row r="695" ht="14.25" customHeight="1"/>
-    <row r="696" ht="14.25" customHeight="1"/>
-    <row r="697" ht="14.25" customHeight="1"/>
-    <row r="698" ht="14.25" customHeight="1"/>
-    <row r="699" ht="14.25" customHeight="1"/>
-    <row r="700" ht="14.25" customHeight="1"/>
-    <row r="701" ht="14.25" customHeight="1"/>
-    <row r="702" ht="14.25" customHeight="1"/>
-    <row r="703" ht="14.25" customHeight="1"/>
-    <row r="704" ht="14.25" customHeight="1"/>
-    <row r="705" ht="14.25" customHeight="1"/>
-    <row r="706" ht="14.25" customHeight="1"/>
-    <row r="707" ht="14.25" customHeight="1"/>
-    <row r="708" ht="14.25" customHeight="1"/>
-    <row r="709" ht="14.25" customHeight="1"/>
-    <row r="710" ht="14.25" customHeight="1"/>
-    <row r="711" ht="14.25" customHeight="1"/>
-    <row r="712" ht="14.25" customHeight="1"/>
-    <row r="713" ht="14.25" customHeight="1"/>
-    <row r="714" ht="14.25" customHeight="1"/>
-    <row r="715" ht="14.25" customHeight="1"/>
-    <row r="716" ht="14.25" customHeight="1"/>
-    <row r="717" ht="14.25" customHeight="1"/>
-    <row r="718" ht="14.25" customHeight="1"/>
-    <row r="719" ht="14.25" customHeight="1"/>
-    <row r="720" ht="14.25" customHeight="1"/>
-    <row r="721" ht="14.25" customHeight="1"/>
-    <row r="722" ht="14.25" customHeight="1"/>
-    <row r="723" ht="14.25" customHeight="1"/>
-    <row r="724" ht="14.25" customHeight="1"/>
-    <row r="725" ht="14.25" customHeight="1"/>
-    <row r="726" ht="14.25" customHeight="1"/>
-    <row r="727" ht="14.25" customHeight="1"/>
-    <row r="728" ht="14.25" customHeight="1"/>
-    <row r="729" ht="14.25" customHeight="1"/>
-    <row r="730" ht="14.25" customHeight="1"/>
-    <row r="731" ht="14.25" customHeight="1"/>
-    <row r="732" ht="14.25" customHeight="1"/>
-    <row r="733" ht="14.25" customHeight="1"/>
-    <row r="734" ht="14.25" customHeight="1"/>
-    <row r="735" ht="14.25" customHeight="1"/>
-    <row r="736" ht="14.25" customHeight="1"/>
-    <row r="737" ht="14.25" customHeight="1"/>
-    <row r="738" ht="14.25" customHeight="1"/>
-    <row r="739" ht="14.25" customHeight="1"/>
-    <row r="740" ht="14.25" customHeight="1"/>
-    <row r="741" ht="14.25" customHeight="1"/>
-    <row r="742" ht="14.25" customHeight="1"/>
-    <row r="743" ht="14.25" customHeight="1"/>
-    <row r="744" ht="14.25" customHeight="1"/>
-    <row r="745" ht="14.25" customHeight="1"/>
-    <row r="746" ht="14.25" customHeight="1"/>
-    <row r="747" ht="14.25" customHeight="1"/>
-    <row r="748" ht="14.25" customHeight="1"/>
-    <row r="749" ht="14.25" customHeight="1"/>
-    <row r="750" ht="14.25" customHeight="1"/>
-    <row r="751" ht="14.25" customHeight="1"/>
-    <row r="752" ht="14.25" customHeight="1"/>
-    <row r="753" ht="14.25" customHeight="1"/>
-    <row r="754" ht="14.25" customHeight="1"/>
-    <row r="755" ht="14.25" customHeight="1"/>
-    <row r="756" ht="14.25" customHeight="1"/>
-    <row r="757" ht="14.25" customHeight="1"/>
-    <row r="758" ht="14.25" customHeight="1"/>
-    <row r="759" ht="14.25" customHeight="1"/>
-    <row r="760" ht="14.25" customHeight="1"/>
-    <row r="761" ht="14.25" customHeight="1"/>
-    <row r="762" ht="14.25" customHeight="1"/>
-    <row r="763" ht="14.25" customHeight="1"/>
-    <row r="764" ht="14.25" customHeight="1"/>
-    <row r="765" ht="14.25" customHeight="1"/>
-    <row r="766" ht="14.25" customHeight="1"/>
-    <row r="767" ht="14.25" customHeight="1"/>
-    <row r="768" ht="14.25" customHeight="1"/>
-    <row r="769" ht="14.25" customHeight="1"/>
-    <row r="770" ht="14.25" customHeight="1"/>
-    <row r="771" ht="14.25" customHeight="1"/>
-    <row r="772" ht="14.25" customHeight="1"/>
-    <row r="773" ht="14.25" customHeight="1"/>
-    <row r="774" ht="14.25" customHeight="1"/>
-    <row r="775" ht="14.25" customHeight="1"/>
-    <row r="776" ht="14.25" customHeight="1"/>
-    <row r="777" ht="14.25" customHeight="1"/>
-    <row r="778" ht="14.25" customHeight="1"/>
-    <row r="779" ht="14.25" customHeight="1"/>
-    <row r="780" ht="14.25" customHeight="1"/>
-    <row r="781" ht="14.25" customHeight="1"/>
-    <row r="782" ht="14.25" customHeight="1"/>
-    <row r="783" ht="14.25" customHeight="1"/>
-    <row r="784" ht="14.25" customHeight="1"/>
-    <row r="785" ht="14.25" customHeight="1"/>
-    <row r="786" ht="14.25" customHeight="1"/>
-    <row r="787" ht="14.25" customHeight="1"/>
-    <row r="788" ht="14.25" customHeight="1"/>
-    <row r="789" ht="14.25" customHeight="1"/>
-    <row r="790" ht="14.25" customHeight="1"/>
-    <row r="791" ht="14.25" customHeight="1"/>
-    <row r="792" ht="14.25" customHeight="1"/>
-    <row r="793" ht="14.25" customHeight="1"/>
-    <row r="794" ht="14.25" customHeight="1"/>
-    <row r="795" ht="14.25" customHeight="1"/>
-    <row r="796" ht="14.25" customHeight="1"/>
-    <row r="797" ht="14.25" customHeight="1"/>
-    <row r="798" ht="14.25" customHeight="1"/>
-    <row r="799" ht="14.25" customHeight="1"/>
-    <row r="800" ht="14.25" customHeight="1"/>
-    <row r="801" ht="14.25" customHeight="1"/>
-    <row r="802" ht="14.25" customHeight="1"/>
-    <row r="803" ht="14.25" customHeight="1"/>
-    <row r="804" ht="14.25" customHeight="1"/>
-    <row r="805" ht="14.25" customHeight="1"/>
-    <row r="806" ht="14.25" customHeight="1"/>
-    <row r="807" ht="14.25" customHeight="1"/>
-    <row r="808" ht="14.25" customHeight="1"/>
-    <row r="809" ht="14.25" customHeight="1"/>
-    <row r="810" ht="14.25" customHeight="1"/>
-    <row r="811" ht="14.25" customHeight="1"/>
-    <row r="812" ht="14.25" customHeight="1"/>
-    <row r="813" ht="14.25" customHeight="1"/>
-    <row r="814" ht="14.25" customHeight="1"/>
-    <row r="815" ht="14.25" customHeight="1"/>
-    <row r="816" ht="14.25" customHeight="1"/>
-    <row r="817" ht="14.25" customHeight="1"/>
-    <row r="818" ht="14.25" customHeight="1"/>
-    <row r="819" ht="14.25" customHeight="1"/>
-    <row r="820" ht="14.25" customHeight="1"/>
-    <row r="821" ht="14.25" customHeight="1"/>
-    <row r="822" ht="14.25" customHeight="1"/>
-    <row r="823" ht="14.25" customHeight="1"/>
-    <row r="824" ht="14.25" customHeight="1"/>
-    <row r="825" ht="14.25" customHeight="1"/>
-    <row r="826" ht="14.25" customHeight="1"/>
-    <row r="827" ht="14.25" customHeight="1"/>
-    <row r="828" ht="14.25" customHeight="1"/>
-    <row r="829" ht="14.25" customHeight="1"/>
-    <row r="830" ht="14.25" customHeight="1"/>
-    <row r="831" ht="14.25" customHeight="1"/>
-    <row r="832" ht="14.25" customHeight="1"/>
-    <row r="833" ht="14.25" customHeight="1"/>
-    <row r="834" ht="14.25" customHeight="1"/>
-    <row r="835" ht="14.25" customHeight="1"/>
-    <row r="836" ht="14.25" customHeight="1"/>
-    <row r="837" ht="14.25" customHeight="1"/>
-    <row r="838" ht="14.25" customHeight="1"/>
-    <row r="839" ht="14.25" customHeight="1"/>
-    <row r="840" ht="14.25" customHeight="1"/>
-    <row r="841" ht="14.25" customHeight="1"/>
-    <row r="842" ht="14.25" customHeight="1"/>
-    <row r="843" ht="14.25" customHeight="1"/>
-    <row r="844" ht="14.25" customHeight="1"/>
-    <row r="845" ht="14.25" customHeight="1"/>
-    <row r="846" ht="14.25" customHeight="1"/>
-    <row r="847" ht="14.25" customHeight="1"/>
-    <row r="848" ht="14.25" customHeight="1"/>
-    <row r="849" ht="14.25" customHeight="1"/>
-    <row r="850" ht="14.25" customHeight="1"/>
-    <row r="851" ht="14.25" customHeight="1"/>
-    <row r="852" ht="14.25" customHeight="1"/>
-    <row r="853" ht="14.25" customHeight="1"/>
-    <row r="854" ht="14.25" customHeight="1"/>
-    <row r="855" ht="14.25" customHeight="1"/>
-    <row r="856" ht="14.25" customHeight="1"/>
-    <row r="857" ht="14.25" customHeight="1"/>
-    <row r="858" ht="14.25" customHeight="1"/>
-    <row r="859" ht="14.25" customHeight="1"/>
-    <row r="860" ht="14.25" customHeight="1"/>
-    <row r="861" ht="14.25" customHeight="1"/>
-    <row r="862" ht="14.25" customHeight="1"/>
-    <row r="863" ht="14.25" customHeight="1"/>
-    <row r="864" ht="14.25" customHeight="1"/>
-    <row r="865" ht="14.25" customHeight="1"/>
-    <row r="866" ht="14.25" customHeight="1"/>
-    <row r="867" ht="14.25" customHeight="1"/>
-    <row r="868" ht="14.25" customHeight="1"/>
-    <row r="869" ht="14.25" customHeight="1"/>
-    <row r="870" ht="14.25" customHeight="1"/>
-    <row r="871" ht="14.25" customHeight="1"/>
-    <row r="872" ht="14.25" customHeight="1"/>
-    <row r="873" ht="14.25" customHeight="1"/>
-    <row r="874" ht="14.25" customHeight="1"/>
-    <row r="875" ht="14.25" customHeight="1"/>
-    <row r="876" ht="14.25" customHeight="1"/>
-    <row r="877" ht="14.25" customHeight="1"/>
-    <row r="878" ht="14.25" customHeight="1"/>
-    <row r="879" ht="14.25" customHeight="1"/>
-    <row r="880" ht="14.25" customHeight="1"/>
-    <row r="881" ht="14.25" customHeight="1"/>
-    <row r="882" ht="14.25" customHeight="1"/>
-    <row r="883" ht="14.25" customHeight="1"/>
-    <row r="884" ht="14.25" customHeight="1"/>
-    <row r="885" ht="14.25" customHeight="1"/>
-    <row r="886" ht="14.25" customHeight="1"/>
-    <row r="887" ht="14.25" customHeight="1"/>
-    <row r="888" ht="14.25" customHeight="1"/>
-    <row r="889" ht="14.25" customHeight="1"/>
-    <row r="890" ht="14.25" customHeight="1"/>
-    <row r="891" ht="14.25" customHeight="1"/>
-    <row r="892" ht="14.25" customHeight="1"/>
-    <row r="893" ht="14.25" customHeight="1"/>
-    <row r="894" ht="14.25" customHeight="1"/>
-    <row r="895" ht="14.25" customHeight="1"/>
-    <row r="896" ht="14.25" customHeight="1"/>
-    <row r="897" ht="14.25" customHeight="1"/>
-    <row r="898" ht="14.25" customHeight="1"/>
-    <row r="899" ht="14.25" customHeight="1"/>
-    <row r="900" ht="14.25" customHeight="1"/>
-    <row r="901" ht="14.25" customHeight="1"/>
-    <row r="902" ht="14.25" customHeight="1"/>
-    <row r="903" ht="14.25" customHeight="1"/>
-    <row r="904" ht="14.25" customHeight="1"/>
-    <row r="905" ht="14.25" customHeight="1"/>
-    <row r="906" ht="14.25" customHeight="1"/>
-    <row r="907" ht="14.25" customHeight="1"/>
-    <row r="908" ht="14.25" customHeight="1"/>
-    <row r="909" ht="14.25" customHeight="1"/>
-    <row r="910" ht="14.25" customHeight="1"/>
-    <row r="911" ht="14.25" customHeight="1"/>
-    <row r="912" ht="14.25" customHeight="1"/>
-    <row r="913" ht="14.25" customHeight="1"/>
-    <row r="914" ht="14.25" customHeight="1"/>
-    <row r="915" ht="14.25" customHeight="1"/>
-    <row r="916" ht="14.25" customHeight="1"/>
-    <row r="917" ht="14.25" customHeight="1"/>
-    <row r="918" ht="14.25" customHeight="1"/>
-    <row r="919" ht="14.25" customHeight="1"/>
-    <row r="920" ht="14.25" customHeight="1"/>
-    <row r="921" ht="14.25" customHeight="1"/>
-    <row r="922" ht="14.25" customHeight="1"/>
-    <row r="923" ht="14.25" customHeight="1"/>
-    <row r="924" ht="14.25" customHeight="1"/>
-    <row r="925" ht="14.25" customHeight="1"/>
-    <row r="926" ht="14.25" customHeight="1"/>
-    <row r="927" ht="14.25" customHeight="1"/>
-    <row r="928" ht="14.25" customHeight="1"/>
-    <row r="929" ht="14.25" customHeight="1"/>
-    <row r="930" ht="14.25" customHeight="1"/>
-    <row r="931" ht="14.25" customHeight="1"/>
-    <row r="932" ht="14.25" customHeight="1"/>
-    <row r="933" ht="14.25" customHeight="1"/>
-    <row r="934" ht="14.25" customHeight="1"/>
-    <row r="935" ht="14.25" customHeight="1"/>
-    <row r="936" ht="14.25" customHeight="1"/>
-    <row r="937" ht="14.25" customHeight="1"/>
-    <row r="938" ht="14.25" customHeight="1"/>
-    <row r="939" ht="14.25" customHeight="1"/>
-    <row r="940" ht="14.25" customHeight="1"/>
-    <row r="941" ht="14.25" customHeight="1"/>
-    <row r="942" ht="14.25" customHeight="1"/>
-    <row r="943" ht="14.25" customHeight="1"/>
-    <row r="944" ht="14.25" customHeight="1"/>
-    <row r="945" ht="14.25" customHeight="1"/>
-    <row r="946" ht="14.25" customHeight="1"/>
-    <row r="947" ht="14.25" customHeight="1"/>
-    <row r="948" ht="14.25" customHeight="1"/>
-    <row r="949" ht="14.25" customHeight="1"/>
-    <row r="950" ht="14.25" customHeight="1"/>
-    <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
-    <row r="983" ht="14.25" customHeight="1"/>
-    <row r="984" ht="14.25" customHeight="1"/>
-    <row r="985" ht="14.25" customHeight="1"/>
-    <row r="986" ht="14.25" customHeight="1"/>
-    <row r="987" ht="14.25" customHeight="1"/>
-    <row r="988" ht="14.25" customHeight="1"/>
-    <row r="989" ht="14.25" customHeight="1"/>
-    <row r="990" ht="14.25" customHeight="1"/>
-    <row r="991" ht="14.25" customHeight="1"/>
-    <row r="992" ht="14.25" customHeight="1"/>
-    <row r="993" ht="14.25" customHeight="1"/>
-    <row r="994" ht="14.25" customHeight="1"/>
-    <row r="995" ht="14.25" customHeight="1"/>
-    <row r="996" ht="14.25" customHeight="1"/>
-    <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
-    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="A21"/>
-  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PicoDVI-N64_BOM.xlsx
+++ b/PicoDVI-N64_BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="55">
   <si>
     <t>Only used for the hispeedido flex option</t>
   </si>
@@ -124,27 +124,21 @@
     <t>Thick Film Resistors - SMD 47ohm 5%</t>
   </si>
   <si>
-    <t>649-SFV30R-4STE1HLF</t>
-  </si>
-  <si>
-    <t>SFV30R-4STE1HLF</t>
+    <t>649-F32Q-1A7H1-11030</t>
+  </si>
+  <si>
+    <t>F32Q-1A7H1-11030</t>
   </si>
   <si>
     <t>Amphenol</t>
   </si>
   <si>
-    <t>FFC &amp; FPC Connectors FFC/FPC CONN</t>
+    <t>FFC &amp; FPC Connectors F32Q-1A7H1-11030-Slider type</t>
   </si>
   <si>
     <t>RoHS Compliant</t>
   </si>
   <si>
-    <t>$0.48</t>
-  </si>
-  <si>
-    <t>$1.44</t>
-  </si>
-  <si>
     <t>530-SS-53000-001</t>
   </si>
   <si>
@@ -175,25 +169,22 @@
     <t>$0.40</t>
   </si>
   <si>
-    <t>649-SFV24R-4STBE1HLF</t>
-  </si>
-  <si>
-    <t>SFV24R-4STBE1HLF</t>
-  </si>
-  <si>
-    <t>FFC &amp; FPC Connectors 24P R/A SMT FFC/FPC 0.5mm CONT SPACING</t>
-  </si>
-  <si>
-    <t>$0.56</t>
-  </si>
-  <si>
-    <t>$1.68</t>
+    <t>649-F32Q-1A7H1-11024</t>
+  </si>
+  <si>
+    <t>F32Q-1A7H1-11024</t>
+  </si>
+  <si>
+    <t>FFC &amp; FPC Connectors F32Q-1A7H1-11024-Slider type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11.0"/>
@@ -267,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -290,22 +281,37 @@
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,22 +794,22 @@
       <c r="D15" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="11"/>
+      <c r="E15" s="12"/>
       <c r="F15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="11"/>
-      <c r="I15" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>43</v>
+      <c r="H15" s="12"/>
+      <c r="I15" s="14">
+        <v>1.0</v>
+      </c>
+      <c r="J15" s="15">
+        <v>0.88</v>
+      </c>
+      <c r="K15" s="15">
+        <v>0.88</v>
       </c>
     </row>
     <row r="16" ht="14.25" customHeight="1">
@@ -811,16 +817,16 @@
         <v>7.0</v>
       </c>
       <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>47</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>41</v>
@@ -828,11 +834,11 @@
       <c r="I16" s="6">
         <v>1.0</v>
       </c>
-      <c r="J16" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>48</v>
+      <c r="J16" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" s="16" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
@@ -840,16 +846,16 @@
         <v>8.0</v>
       </c>
       <c r="B17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>41</v>
@@ -857,42 +863,42 @@
       <c r="I17" s="6">
         <v>1.0</v>
       </c>
-      <c r="J17" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>53</v>
+      <c r="J17" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="2">
         <v>9.0</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="14"/>
-      <c r="I18" s="16">
-        <v>3.0</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="14" t="s">
-        <v>58</v>
+      <c r="H18" s="18"/>
+      <c r="I18" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="J18" s="21">
+        <v>0.74</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0.74</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2262,6 +2268,13 @@
     <row r="991" ht="15.75" customHeight="1"/>
     <row r="992" ht="15.75" customHeight="1"/>
     <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
